--- a/testrun/fileOutput/Result_controller.xlsx
+++ b/testrun/fileOutput/Result_controller.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hybrid_Project\testrun\fileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38C2D6B-7EFB-4CA6-9062-0FA7134165FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0130B79-BA78-46C9-B354-DA477C59C857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="180" windowWidth="12570" windowHeight="10890" xr2:uid="{EFBCACC3-DE11-4E5B-B5A4-66E3D6BA9588}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{EFBCACC3-DE11-4E5B-B5A4-66E3D6BA9588}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -75,7 +76,43 @@
     <t>search</t>
   </si>
   <si>
-    <t>pass</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Object_Type</t>
+  </si>
+  <si>
+    <t>Locator_Type</t>
+  </si>
+  <si>
+    <t>Locator_Value</t>
+  </si>
+  <si>
+    <t>Test_Data</t>
+  </si>
+  <si>
+    <t>Launch Browser</t>
+  </si>
+  <si>
+    <t>WaitForTextbox</t>
+  </si>
+  <si>
+    <t>Launch Url</t>
+  </si>
+  <si>
+    <t>takeUrl</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>srartBrowser</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -92,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,10 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA6EDA4-67DF-46DF-A6AA-6F908C893A1E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -499,11 +543,9 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -540,6 +582,88 @@
         <v>8</v>
       </c>
       <c r="D6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD67CC9-4C62-49FA-B624-2261F82C2A18}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.28515625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.7109375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
